--- a/src/main/java/com/testdata/TestData.xlsx
+++ b/src/main/java/com/testdata/TestData.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAIBHAV\eclipse-workspace\Facebook_Framework\src\main\java\com\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\eclipse-workspace\Facebook_-Hybrid_driven_framework-main\src\main\java\com\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFE1EA6-5389-4F45-9A71-28CE5EFBB623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DB3288-5DC3-40F5-9C62-2AE084E47053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2C3DDCB-A2C7-49EA-8FC1-82C7F0834E02}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2C3DDCB-A2C7-49EA-8FC1-82C7F0834E02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,28 +35,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>vaibhavbohari@gmail.com</t>
-  </si>
-  <si>
-    <t>Vaibhav1@</t>
-  </si>
-  <si>
-    <t>Vaibhav2@</t>
-  </si>
-  <si>
-    <t>vaibhavbohari@1997gmail.com</t>
-  </si>
-  <si>
-    <t>vaibhav@1451gmail.com</t>
-  </si>
-  <si>
-    <t>vaibhav589@</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>akshaypalande5@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay@124</t>
+  </si>
+  <si>
+    <t>Akshaypalande@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay123456</t>
+  </si>
+  <si>
+    <t>akshay5@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay@1245678910</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,34 +436,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -471,7 +471,7 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{2BCACA1E-7502-4642-A78E-FFE7C84D4120}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{1021EAC1-7A9E-4E35-B0A1-5CDBD9540AA0}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{99F461BE-DA7B-4E13-8822-9D0DEF187920}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{527F126C-48D6-403B-A22F-D745CCABFB0F}"/>
+    <hyperlink ref="B3" r:id="rId4" display="Akshay@124" xr:uid="{527F126C-48D6-403B-A22F-D745CCABFB0F}"/>
     <hyperlink ref="A4" r:id="rId5" xr:uid="{F29305B1-3843-405E-BCFE-DC5124DA6472}"/>
     <hyperlink ref="B4" r:id="rId6" xr:uid="{AF541ADA-20EB-4B37-ACF3-A83776910A5C}"/>
   </hyperlinks>
